--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220501_110202.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220501_110202.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="259">
   <si>
     <t>사이트</t>
   </si>
@@ -697,6 +697,9 @@
     <t>YG</t>
   </si>
   <si>
+    <t>P NATION</t>
+  </si>
+  <si>
     <t>스타쉽</t>
   </si>
   <si>
@@ -733,9 +736,6 @@
     <t>해외</t>
   </si>
   <si>
-    <t>P NATION</t>
-  </si>
-  <si>
     <t>SONY MUSIC</t>
   </si>
   <si>
@@ -779,6 +779,9 @@
   </si>
   <si>
     <t>생각</t>
+  </si>
+  <si>
+    <t>마크툽컴퍼니</t>
   </si>
   <si>
     <t>FNC</t>
@@ -1222,6 +1225,12 @@
       <c r="F3" t="s">
         <v>169</v>
       </c>
+      <c r="G3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H3" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
@@ -1243,10 +1252,10 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1269,10 +1278,10 @@
         <v>170</v>
       </c>
       <c r="G5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1295,10 +1304,10 @@
         <v>171</v>
       </c>
       <c r="G6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1321,10 +1330,10 @@
         <v>172</v>
       </c>
       <c r="G7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1347,10 +1356,10 @@
         <v>173</v>
       </c>
       <c r="G8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1373,10 +1382,10 @@
         <v>174</v>
       </c>
       <c r="G9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1399,10 +1408,10 @@
         <v>175</v>
       </c>
       <c r="G10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1425,10 +1434,10 @@
         <v>176</v>
       </c>
       <c r="G11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1451,10 +1460,10 @@
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1477,10 +1486,10 @@
         <v>177</v>
       </c>
       <c r="G13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1503,10 +1512,10 @@
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1529,10 +1538,10 @@
         <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1555,10 +1564,10 @@
         <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H16" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1581,10 +1590,10 @@
         <v>25</v>
       </c>
       <c r="G17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1607,10 +1616,10 @@
         <v>178</v>
       </c>
       <c r="G18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H18" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1633,10 +1642,10 @@
         <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H19" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1659,10 +1668,10 @@
         <v>179</v>
       </c>
       <c r="G20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1685,10 +1694,10 @@
         <v>180</v>
       </c>
       <c r="G21" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H21" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1711,10 +1720,10 @@
         <v>181</v>
       </c>
       <c r="G22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1737,10 +1746,10 @@
         <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1763,10 +1772,10 @@
         <v>182</v>
       </c>
       <c r="G24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1789,10 +1798,10 @@
         <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1815,10 +1824,10 @@
         <v>183</v>
       </c>
       <c r="G26" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1841,10 +1850,10 @@
         <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="H27" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1870,7 +1879,7 @@
         <v>240</v>
       </c>
       <c r="H28" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1892,6 +1901,12 @@
       <c r="F29" t="s">
         <v>169</v>
       </c>
+      <c r="G29" t="s">
+        <v>227</v>
+      </c>
+      <c r="H29" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
@@ -1913,10 +1928,10 @@
         <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H30" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1939,10 +1954,10 @@
         <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1964,6 +1979,12 @@
       <c r="F32" t="s">
         <v>169</v>
       </c>
+      <c r="G32" t="s">
+        <v>227</v>
+      </c>
+      <c r="H32" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
@@ -1988,7 +2009,7 @@
         <v>241</v>
       </c>
       <c r="H33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2011,10 +2032,10 @@
         <v>186</v>
       </c>
       <c r="G34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2037,10 +2058,10 @@
         <v>187</v>
       </c>
       <c r="G35" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H35" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2066,7 +2087,7 @@
         <v>242</v>
       </c>
       <c r="H36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2089,10 +2110,10 @@
         <v>170</v>
       </c>
       <c r="G37" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H37" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2118,7 +2139,7 @@
         <v>243</v>
       </c>
       <c r="H38" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2170,7 +2191,7 @@
         <v>245</v>
       </c>
       <c r="H40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2193,10 +2214,10 @@
         <v>190</v>
       </c>
       <c r="G41" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H41" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2222,7 +2243,7 @@
         <v>246</v>
       </c>
       <c r="H42" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2248,7 +2269,7 @@
         <v>247</v>
       </c>
       <c r="H43" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2274,7 +2295,7 @@
         <v>248</v>
       </c>
       <c r="H44" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2323,10 +2344,10 @@
         <v>54</v>
       </c>
       <c r="G46" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H46" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2352,7 +2373,7 @@
         <v>243</v>
       </c>
       <c r="H47" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2375,10 +2396,10 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2401,10 +2422,10 @@
         <v>57</v>
       </c>
       <c r="G49" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H49" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2426,6 +2447,12 @@
       <c r="F50" t="s">
         <v>169</v>
       </c>
+      <c r="G50" t="s">
+        <v>227</v>
+      </c>
+      <c r="H50" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
@@ -2450,7 +2477,7 @@
         <v>249</v>
       </c>
       <c r="H51" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2476,7 +2503,7 @@
         <v>242</v>
       </c>
       <c r="H52" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2499,10 +2526,10 @@
         <v>195</v>
       </c>
       <c r="G53" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H53" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2528,7 +2555,7 @@
         <v>242</v>
       </c>
       <c r="H54" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2551,10 +2578,10 @@
         <v>197</v>
       </c>
       <c r="G55" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H55" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2577,10 +2604,10 @@
         <v>64</v>
       </c>
       <c r="G56" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H56" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2606,7 +2633,7 @@
         <v>243</v>
       </c>
       <c r="H57" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2632,7 +2659,7 @@
         <v>242</v>
       </c>
       <c r="H58" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2658,7 +2685,7 @@
         <v>250</v>
       </c>
       <c r="H59" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2681,10 +2708,10 @@
         <v>68</v>
       </c>
       <c r="G60" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H60" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2710,7 +2737,7 @@
         <v>251</v>
       </c>
       <c r="H61" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2736,7 +2763,7 @@
         <v>242</v>
       </c>
       <c r="H62" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2762,7 +2789,7 @@
         <v>242</v>
       </c>
       <c r="H63" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2811,10 +2838,10 @@
         <v>203</v>
       </c>
       <c r="G65" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H65" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2837,10 +2864,10 @@
         <v>204</v>
       </c>
       <c r="G66" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H66" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2863,10 +2890,10 @@
         <v>205</v>
       </c>
       <c r="G67" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H67" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2892,7 +2919,7 @@
         <v>252</v>
       </c>
       <c r="H68" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2918,7 +2945,7 @@
         <v>253</v>
       </c>
       <c r="H69" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2944,7 +2971,7 @@
         <v>254</v>
       </c>
       <c r="H70" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2967,10 +2994,10 @@
         <v>209</v>
       </c>
       <c r="G71" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H71" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2996,7 +3023,7 @@
         <v>254</v>
       </c>
       <c r="H72" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3019,10 +3046,10 @@
         <v>210</v>
       </c>
       <c r="G73" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H73" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3044,6 +3071,12 @@
       <c r="F74" t="s">
         <v>211</v>
       </c>
+      <c r="G74" t="s">
+        <v>255</v>
+      </c>
+      <c r="H74" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
@@ -3064,6 +3097,12 @@
       <c r="F75" t="s">
         <v>83</v>
       </c>
+      <c r="G75" t="s">
+        <v>239</v>
+      </c>
+      <c r="H75" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
@@ -3085,10 +3124,10 @@
         <v>212</v>
       </c>
       <c r="G76" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H76" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3114,7 +3153,7 @@
         <v>249</v>
       </c>
       <c r="H77" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3137,10 +3176,10 @@
         <v>86</v>
       </c>
       <c r="G78" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H78" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3163,10 +3202,10 @@
         <v>214</v>
       </c>
       <c r="G79" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H79" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3189,10 +3228,10 @@
         <v>215</v>
       </c>
       <c r="G80" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H80" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3215,10 +3254,10 @@
         <v>216</v>
       </c>
       <c r="G81" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H81" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3241,10 +3280,10 @@
         <v>90</v>
       </c>
       <c r="G82" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H82" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3296,7 +3335,7 @@
         <v>243</v>
       </c>
       <c r="H84" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3319,10 +3358,10 @@
         <v>218</v>
       </c>
       <c r="G85" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H85" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3345,10 +3384,10 @@
         <v>94</v>
       </c>
       <c r="G86" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H86" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3370,6 +3409,12 @@
       <c r="F87" t="s">
         <v>169</v>
       </c>
+      <c r="G87" t="s">
+        <v>227</v>
+      </c>
+      <c r="H87" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
@@ -3391,10 +3436,10 @@
         <v>96</v>
       </c>
       <c r="G88" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H88" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3416,6 +3461,12 @@
       <c r="F89" t="s">
         <v>169</v>
       </c>
+      <c r="G89" t="s">
+        <v>227</v>
+      </c>
+      <c r="H89" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
@@ -3437,10 +3488,10 @@
         <v>219</v>
       </c>
       <c r="G90" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H90" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3466,7 +3517,7 @@
         <v>243</v>
       </c>
       <c r="H91" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3489,10 +3540,10 @@
         <v>100</v>
       </c>
       <c r="G92" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H92" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3518,7 +3569,7 @@
         <v>254</v>
       </c>
       <c r="H93" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3540,6 +3591,12 @@
       <c r="F94" t="s">
         <v>222</v>
       </c>
+      <c r="G94" t="s">
+        <v>255</v>
+      </c>
+      <c r="H94" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
@@ -3561,10 +3618,10 @@
         <v>223</v>
       </c>
       <c r="G95" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H95" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3590,7 +3647,7 @@
         <v>248</v>
       </c>
       <c r="H96" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3613,10 +3670,10 @@
         <v>224</v>
       </c>
       <c r="G97" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="H97" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3642,7 +3699,7 @@
         <v>254</v>
       </c>
       <c r="H98" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3665,10 +3722,10 @@
         <v>197</v>
       </c>
       <c r="G99" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H99" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3689,6 +3746,12 @@
       </c>
       <c r="F100" t="s">
         <v>169</v>
+      </c>
+      <c r="G100" t="s">
+        <v>227</v>
+      </c>
+      <c r="H100" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="101" spans="1:8">

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220501_110202.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220501_110202.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>genie</t>
+    <t>Genie</t>
   </si>
   <si>
     <t>2022-05-01</t>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220501_110202.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220501_110202.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="258">
   <si>
     <t>사이트</t>
   </si>
@@ -743,9 +743,6 @@
   </si>
   <si>
     <t>EDAM</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>빅히트</t>
@@ -2136,7 +2133,7 @@
         <v>188</v>
       </c>
       <c r="G38" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H38" t="s">
         <v>238</v>
@@ -2162,10 +2159,10 @@
         <v>189</v>
       </c>
       <c r="G39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2188,7 +2185,7 @@
         <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H40" t="s">
         <v>238</v>
@@ -2240,7 +2237,7 @@
         <v>191</v>
       </c>
       <c r="G42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H42" t="s">
         <v>238</v>
@@ -2266,7 +2263,7 @@
         <v>192</v>
       </c>
       <c r="G43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H43" t="s">
         <v>238</v>
@@ -2292,7 +2289,7 @@
         <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H44" t="s">
         <v>238</v>
@@ -2318,10 +2315,10 @@
         <v>53</v>
       </c>
       <c r="G45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2370,7 +2367,7 @@
         <v>193</v>
       </c>
       <c r="G47" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H47" t="s">
         <v>238</v>
@@ -2474,7 +2471,7 @@
         <v>59</v>
       </c>
       <c r="G51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H51" t="s">
         <v>238</v>
@@ -2630,7 +2627,7 @@
         <v>65</v>
       </c>
       <c r="G57" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H57" t="s">
         <v>238</v>
@@ -2682,7 +2679,7 @@
         <v>199</v>
       </c>
       <c r="G59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H59" t="s">
         <v>238</v>
@@ -2734,7 +2731,7 @@
         <v>200</v>
       </c>
       <c r="G61" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H61" t="s">
         <v>238</v>
@@ -2812,10 +2809,10 @@
         <v>202</v>
       </c>
       <c r="G64" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H64" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2916,7 +2913,7 @@
         <v>206</v>
       </c>
       <c r="G68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H68" t="s">
         <v>238</v>
@@ -2942,7 +2939,7 @@
         <v>207</v>
       </c>
       <c r="G69" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H69" t="s">
         <v>238</v>
@@ -2968,7 +2965,7 @@
         <v>208</v>
       </c>
       <c r="G70" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H70" t="s">
         <v>238</v>
@@ -3020,7 +3017,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H72" t="s">
         <v>238</v>
@@ -3072,7 +3069,7 @@
         <v>211</v>
       </c>
       <c r="G74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H74" t="s">
         <v>238</v>
@@ -3150,7 +3147,7 @@
         <v>213</v>
       </c>
       <c r="G77" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H77" t="s">
         <v>238</v>
@@ -3280,7 +3277,7 @@
         <v>90</v>
       </c>
       <c r="G82" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H82" t="s">
         <v>238</v>
@@ -3332,7 +3329,7 @@
         <v>186</v>
       </c>
       <c r="G84" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H84" t="s">
         <v>238</v>
@@ -3514,7 +3511,7 @@
         <v>220</v>
       </c>
       <c r="G91" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H91" t="s">
         <v>238</v>
@@ -3540,7 +3537,7 @@
         <v>100</v>
       </c>
       <c r="G92" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H92" t="s">
         <v>238</v>
@@ -3566,7 +3563,7 @@
         <v>221</v>
       </c>
       <c r="G93" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H93" t="s">
         <v>238</v>
@@ -3592,7 +3589,7 @@
         <v>222</v>
       </c>
       <c r="G94" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H94" t="s">
         <v>238</v>
@@ -3618,7 +3615,7 @@
         <v>223</v>
       </c>
       <c r="G95" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H95" t="s">
         <v>238</v>
@@ -3644,7 +3641,7 @@
         <v>104</v>
       </c>
       <c r="G96" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H96" t="s">
         <v>238</v>
@@ -3696,7 +3693,7 @@
         <v>106</v>
       </c>
       <c r="G98" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H98" t="s">
         <v>238</v>
@@ -3774,10 +3771,10 @@
         <v>225</v>
       </c>
       <c r="G101" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H101" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
